--- a/metadata/all_saliva_user_info.xlsx
+++ b/metadata/all_saliva_user_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireillefarjo/Documents/Grad/2022/SARS_data_complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B79FAD-D2EA-2948-87CF-5033947FAF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C94894-E3C8-004D-A43C-3A3CF01332C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="460" windowWidth="14520" windowHeight="16180" xr2:uid="{4A7FD591-D8B7-7D4B-8357-42296DDFEAF3}"/>
+    <workbookView xWindow="3120" yWindow="460" windowWidth="19720" windowHeight="16180" xr2:uid="{4A7FD591-D8B7-7D4B-8357-42296DDFEAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="8">
   <si>
     <t>user_id</t>
   </si>
@@ -124,14 +124,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D363FD71-E58D-4747-A8A1-98E8C5812FF0}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168:E170"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
       <c r="B2" s="1">
         <v>44172</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2255901</v>
       </c>
       <c r="D2" t="s">
@@ -505,7 +505,7 @@
       <c r="B3" s="1">
         <v>44173</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2264708</v>
       </c>
       <c r="D3" t="s">
@@ -525,7 +525,7 @@
       <c r="B4" s="1">
         <v>44174</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>2270321</v>
       </c>
       <c r="D4" t="s">
@@ -545,7 +545,7 @@
       <c r="B5" s="1">
         <v>44175</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>2278093</v>
       </c>
       <c r="D5" t="s">
@@ -565,7 +565,7 @@
       <c r="B6" s="1">
         <v>44177</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>2290531</v>
       </c>
       <c r="D6" t="s">
@@ -585,7 +585,7 @@
       <c r="B7" s="1">
         <v>44182</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>2322146</v>
       </c>
       <c r="D7" t="s">
@@ -683,19 +683,19 @@
         <v>432870</v>
       </c>
       <c r="B12" s="1">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="C12" s="2">
-        <v>2291489</v>
+        <v>2301664</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>25.33</v>
+        <v>26.51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -703,79 +703,79 @@
         <v>432870</v>
       </c>
       <c r="B13" s="1">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="C13" s="2">
-        <v>2294271</v>
+        <v>2309013</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>27.26</v>
+        <v>26.63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>432870</v>
+        <v>433227</v>
       </c>
       <c r="B14" s="1">
-        <v>44179</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2301664</v>
+        <v>44177</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2291530</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>26.51</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>432870</v>
+        <v>433227</v>
       </c>
       <c r="B15" s="1">
-        <v>44180</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2309013</v>
+        <v>44179</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2301650</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>26.63</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>432870</v>
+        <v>433227</v>
       </c>
       <c r="B16" s="1">
-        <v>44181</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2315984</v>
+        <v>44180</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2309019</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>27.72</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -783,19 +783,19 @@
         <v>433227</v>
       </c>
       <c r="B17" s="1">
-        <v>44177</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2291530</v>
+        <v>44181</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2315968</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>26.6</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -803,119 +803,119 @@
         <v>433227</v>
       </c>
       <c r="B18" s="1">
-        <v>44178</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2293412</v>
+        <v>44182</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2322121</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>27</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>433227</v>
+        <v>435786</v>
       </c>
       <c r="B19" s="1">
-        <v>44179</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2301650</v>
+        <v>44202</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2383664</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>23.87</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>433227</v>
+        <v>435786</v>
       </c>
       <c r="B20" s="1">
-        <v>44180</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2309019</v>
+        <v>44203</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2387864</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>24.64</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>433227</v>
+        <v>435786</v>
       </c>
       <c r="B21" s="1">
-        <v>44181</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2315968</v>
+        <v>44204</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2390233</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>23.54</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>433227</v>
+        <v>435786</v>
       </c>
       <c r="B22" s="1">
-        <v>44182</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2322121</v>
+        <v>44205</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2394329</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>25.08</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>433227</v>
+        <v>435786</v>
       </c>
       <c r="B23" s="1">
-        <v>44185</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2335729</v>
+        <v>44207</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2398968</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>27.52</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,119 +923,119 @@
         <v>435786</v>
       </c>
       <c r="B24" s="1">
-        <v>44202</v>
+        <v>44212</v>
       </c>
       <c r="C24" s="2">
-        <v>2383664</v>
+        <v>2425936</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>22.35</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>435786</v>
+        <v>435805</v>
       </c>
       <c r="B25" s="1">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C25" s="2">
-        <v>2387864</v>
+        <v>2383684</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>24.04</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>435786</v>
+        <v>435805</v>
       </c>
       <c r="B26" s="1">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C26" s="2">
-        <v>2390233</v>
+        <v>2387852</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>25.8</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>435786</v>
+        <v>435805</v>
       </c>
       <c r="B27" s="1">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C27" s="2">
-        <v>2394329</v>
+        <v>2391842</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>25.46</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>435786</v>
+        <v>435805</v>
       </c>
       <c r="B28" s="1">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C28" s="2">
-        <v>2398968</v>
+        <v>2394639</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>27.94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>435786</v>
+        <v>435805</v>
       </c>
       <c r="B29" s="1">
-        <v>44212</v>
+        <v>44206</v>
       </c>
       <c r="C29" s="2">
-        <v>2425936</v>
+        <v>2397170</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>26.35</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,19 +1043,19 @@
         <v>435805</v>
       </c>
       <c r="B30" s="1">
-        <v>44202</v>
+        <v>44207</v>
       </c>
       <c r="C30" s="2">
-        <v>2383684</v>
+        <v>2399015</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>23.71</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,19 +1063,19 @@
         <v>435805</v>
       </c>
       <c r="B31" s="1">
-        <v>44203</v>
+        <v>44208</v>
       </c>
       <c r="C31" s="2">
-        <v>2387852</v>
+        <v>2406331</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>24.34</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,19 +1083,19 @@
         <v>435805</v>
       </c>
       <c r="B32" s="1">
-        <v>44204</v>
+        <v>44209</v>
       </c>
       <c r="C32" s="2">
-        <v>2391842</v>
+        <v>2410844</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>25.47</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,296 +1103,296 @@
         <v>435805</v>
       </c>
       <c r="B33" s="1">
-        <v>44205</v>
+        <v>44210</v>
       </c>
       <c r="C33" s="2">
-        <v>2394639</v>
+        <v>2415388</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>27</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>435805</v>
+        <v>438577</v>
       </c>
       <c r="B34" s="1">
-        <v>44206</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2397170</v>
+        <v>44205</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2394752</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>25.1</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>435805</v>
+        <v>438577</v>
       </c>
       <c r="B35" s="1">
         <v>44207</v>
       </c>
-      <c r="C35" s="2">
-        <v>2399015</v>
+      <c r="C35" s="6">
+        <v>2399055</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>21.78</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>435805</v>
+        <v>438577</v>
       </c>
       <c r="B36" s="1">
         <v>44208</v>
       </c>
-      <c r="C36" s="2">
-        <v>2406331</v>
+      <c r="C36" s="5">
+        <v>2406110</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>27.43</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>435805</v>
+        <v>438577</v>
       </c>
       <c r="B37" s="1">
         <v>44209</v>
       </c>
-      <c r="C37" s="2">
-        <v>2410844</v>
+      <c r="C37" s="6">
+        <v>2409860</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>26.88</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>435805</v>
+        <v>442978</v>
       </c>
       <c r="B38" s="1">
-        <v>44210</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2415388</v>
+        <v>44209</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2410823</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>27.94</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>438577</v>
+        <v>442978</v>
       </c>
       <c r="B39" s="1">
-        <v>44205</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2394752</v>
+        <v>44210</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2415001</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>22.78</v>
+        <v>24.73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>438577</v>
+        <v>442978</v>
       </c>
       <c r="B40" s="1">
-        <v>44206</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2397148</v>
+        <v>44211</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2421382</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>19.75</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>438577</v>
+        <v>442978</v>
       </c>
       <c r="B41" s="1">
-        <v>44207</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2399055</v>
+        <v>44213</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2426926</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>21.48</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>438577</v>
+        <v>442978</v>
       </c>
       <c r="B42" s="1">
-        <v>44208</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2406110</v>
+        <v>44214</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2436698</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>21.17</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>438577</v>
+        <v>444332</v>
       </c>
       <c r="B43" s="1">
-        <v>44209</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2409860</v>
+        <v>44210</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2415377</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>24.82</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>438577</v>
+        <v>444332</v>
       </c>
       <c r="B44" s="1">
         <v>44211</v>
       </c>
-      <c r="C44" s="3">
-        <v>2421347</v>
+      <c r="C44" s="2">
+        <v>2421070</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>27.32</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>442978</v>
+        <v>444332</v>
       </c>
       <c r="B45" s="1">
-        <v>44209</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2410823</v>
+        <v>44212</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2425945</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>22.26</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>442978</v>
+        <v>444332</v>
       </c>
       <c r="B46" s="1">
-        <v>44210</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2415001</v>
+        <v>44214</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2436517</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>24.73</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>442978</v>
+        <v>444332</v>
       </c>
       <c r="B47" s="1">
-        <v>44211</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2421382</v>
+        <v>44215</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2447784</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47">
         <v>25.63</v>
@@ -1400,42 +1400,42 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>442978</v>
+        <v>444332</v>
       </c>
       <c r="B48" s="1">
-        <v>44213</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2426926</v>
+        <v>44216</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2453549</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>27.48</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>442978</v>
+        <v>444332</v>
       </c>
       <c r="B49" s="1">
-        <v>44214</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2436698</v>
+        <v>44218</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2472048</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>27.61</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,159 +1443,159 @@
         <v>444332</v>
       </c>
       <c r="B50" s="1">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="C50" s="2">
-        <v>2415377</v>
+        <v>2520735</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>23.99</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B51" s="1">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C51" s="2">
-        <v>2421070</v>
+        <v>2415464</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>23.93</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B52" s="1">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C52" s="2">
-        <v>2425945</v>
+        <v>2421082</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>19.78</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B53" s="1">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C53" s="2">
-        <v>2436517</v>
+        <v>2425933</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>25.88</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B54" s="1">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C54" s="2">
-        <v>2447784</v>
+        <v>2437816</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>25.63</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B55" s="1">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C55" s="2">
-        <v>2453549</v>
+        <v>2448076</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>22.71</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B56" s="1">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C56" s="2">
-        <v>2472048</v>
+        <v>2464643</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>26.5</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>444332</v>
+        <v>444446</v>
       </c>
       <c r="B57" s="1">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="C57" s="2">
-        <v>2520735</v>
+        <v>2476152</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>27.16</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1603,290 +1603,290 @@
         <v>444446</v>
       </c>
       <c r="B58" s="1">
-        <v>44210</v>
+        <v>44219</v>
       </c>
       <c r="C58" s="2">
-        <v>2415464</v>
+        <v>2480180</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>22.46</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>444446</v>
+        <v>444633</v>
       </c>
       <c r="B59" s="1">
-        <v>44211</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2421082</v>
+        <v>44210</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2415368</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>22.59</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>444446</v>
+        <v>444633</v>
       </c>
       <c r="B60" s="1">
-        <v>44212</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2425933</v>
+        <v>44211</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2420718</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>22.7</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>444446</v>
+        <v>444633</v>
       </c>
       <c r="B61" s="1">
-        <v>44214</v>
-      </c>
-      <c r="C61" s="2">
-        <v>2437816</v>
+        <v>44213</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2426869</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>22.49</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>444446</v>
+        <v>444633</v>
       </c>
       <c r="B62" s="1">
-        <v>44215</v>
-      </c>
-      <c r="C62" s="2">
-        <v>2448076</v>
+        <v>44214</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2436710</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>26.67</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>444446</v>
+        <v>444633</v>
       </c>
       <c r="B63" s="1">
-        <v>44216</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2453533</v>
+        <v>44215</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2447992</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
       <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>445602</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2421360</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>16.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>445602</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2425952</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>445602</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C66">
+        <v>2426758</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>445602</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2437744</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>445602</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2447833</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>445602</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2465043</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69">
         <v>7</v>
       </c>
-      <c r="F63">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>444446</v>
-      </c>
-      <c r="B64" s="1">
-        <v>44217</v>
-      </c>
-      <c r="C64" s="2">
-        <v>2464643</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64">
+      <c r="F69">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>445602</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2472278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70">
         <v>8</v>
       </c>
-      <c r="F64">
-        <v>26.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>444446</v>
-      </c>
-      <c r="B65" s="1">
-        <v>44218</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2476152</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <v>9</v>
-      </c>
-      <c r="F65">
-        <v>25.96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>444446</v>
-      </c>
-      <c r="B66" s="1">
-        <v>44219</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2480180</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>26.21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>444633</v>
-      </c>
-      <c r="B67" s="1">
-        <v>44210</v>
-      </c>
-      <c r="C67" s="3">
-        <v>2415368</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>23.12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>444633</v>
-      </c>
-      <c r="B68" s="1">
-        <v>44211</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2420718</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>24.41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>444633</v>
-      </c>
-      <c r="B69" s="1">
-        <v>44213</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2426869</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69">
-        <v>22.58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>444633</v>
-      </c>
-      <c r="B70" s="1">
-        <v>44214</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2436710</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
       <c r="F70">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>444633</v>
+        <v>445602</v>
       </c>
       <c r="B71" s="1">
-        <v>44215</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2447992</v>
+        <v>44223</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2526038</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F71">
-        <v>26.33</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B72" s="1">
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="C72" s="2">
-        <v>2421360</v>
+        <v>2447896</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -1895,2472 +1895,2092 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>16.37</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B73" s="1">
-        <v>44212</v>
+        <v>44217</v>
       </c>
       <c r="C73" s="2">
-        <v>2425952</v>
+        <v>2464594</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>15.85</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B74" s="1">
-        <v>44213</v>
-      </c>
-      <c r="C74">
-        <v>2426758</v>
+        <v>44218</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2476159</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>18.64</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B75" s="1">
-        <v>44214</v>
+        <v>44220</v>
       </c>
       <c r="C75" s="2">
-        <v>2437744</v>
+        <v>2488118</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>19.41</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B76" s="1">
-        <v>44215</v>
+        <v>44222</v>
       </c>
       <c r="C76" s="2">
-        <v>2447833</v>
+        <v>2515540</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>16.82</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>445602</v>
+        <v>449650</v>
       </c>
       <c r="B77" s="1">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="C77" s="2">
-        <v>2465043</v>
+        <v>2525693</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>19.11</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>445602</v>
+        <v>450241</v>
       </c>
       <c r="B78" s="1">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="C78" s="2">
-        <v>2472278</v>
+        <v>2513687</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>21.08</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>445602</v>
+        <v>450241</v>
       </c>
       <c r="B79" s="1">
-        <v>44219</v>
+        <v>44224</v>
       </c>
       <c r="C79" s="2">
-        <v>2480189</v>
+        <v>2533267</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>17.059999999999999</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>445602</v>
+        <v>450241</v>
       </c>
       <c r="B80" s="1">
-        <v>44220</v>
+        <v>44225</v>
       </c>
       <c r="C80" s="2">
-        <v>2487867</v>
+        <v>2545470</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80">
-        <v>21.66</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>445602</v>
+        <v>450241</v>
       </c>
       <c r="B81" s="1">
-        <v>44223</v>
+        <v>44226</v>
       </c>
       <c r="C81" s="2">
-        <v>2526038</v>
+        <v>2551537</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>27.11</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>449650</v>
+        <v>450241</v>
       </c>
       <c r="B82" s="1">
-        <v>44215</v>
+        <v>44227</v>
       </c>
       <c r="C82" s="2">
-        <v>2447896</v>
+        <v>2556564</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>24.9</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>449650</v>
+        <v>450241</v>
       </c>
       <c r="B83" s="1">
-        <v>44216</v>
+        <v>44228</v>
       </c>
       <c r="C83" s="2">
-        <v>2453538</v>
+        <v>2569381</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>20.71</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B84" s="1">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="C84" s="2">
-        <v>2464594</v>
+        <v>2472060</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>26.24</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B85" s="1">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="C85" s="2">
-        <v>2476159</v>
+        <v>2480447</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>24.64</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B86" s="1">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="C86" s="2">
-        <v>2480398</v>
+        <v>2488027</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86">
-        <v>26.78</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B87" s="1">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="C87" s="2">
-        <v>2488118</v>
+        <v>2500624</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>27.45</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B88" s="1">
         <v>44222</v>
       </c>
       <c r="C88" s="2">
-        <v>2515540</v>
+        <v>2513694</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88">
-        <v>27.41</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>449650</v>
+        <v>450348</v>
       </c>
       <c r="B89" s="1">
         <v>44223</v>
       </c>
       <c r="C89" s="2">
-        <v>2525693</v>
+        <v>2522026</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>21.09</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>450241</v>
+        <v>450348</v>
       </c>
       <c r="B90" s="1">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="C90" s="2">
-        <v>2513687</v>
+        <v>2534292</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>26.78</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>450241</v>
+        <v>450348</v>
       </c>
       <c r="B91" s="1">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="C91" s="2">
-        <v>2533267</v>
+        <v>2545516</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91">
-        <v>24.95</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>450241</v>
+        <v>450348</v>
       </c>
       <c r="B92" s="1">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="C92" s="2">
-        <v>2545470</v>
+        <v>2555208</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>26.26</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>450241</v>
+        <v>451152</v>
       </c>
       <c r="B93" s="1">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C93" s="2">
-        <v>2551537</v>
+        <v>2535771</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>23.01</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>450241</v>
+        <v>451152</v>
       </c>
       <c r="B94" s="1">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C94" s="2">
-        <v>2556564</v>
+        <v>2546854</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>27.97</v>
+        <v>18.190000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>450241</v>
+        <v>451152</v>
       </c>
       <c r="B95" s="1">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C95" s="2">
-        <v>2569381</v>
+        <v>2551676</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>25.99</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>450348</v>
+        <v>451152</v>
       </c>
       <c r="B96" s="1">
-        <v>44218</v>
+        <v>44227</v>
       </c>
       <c r="C96" s="2">
-        <v>2472060</v>
+        <v>2556733</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>23.3</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>450348</v>
+        <v>451152</v>
       </c>
       <c r="B97" s="1">
-        <v>44219</v>
+        <v>44228</v>
       </c>
       <c r="C97" s="2">
-        <v>2480447</v>
+        <v>2570081</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F97">
-        <v>20.66</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>450348</v>
+        <v>451152</v>
       </c>
       <c r="B98" s="1">
-        <v>44220</v>
+        <v>44230</v>
       </c>
       <c r="C98" s="2">
-        <v>2488027</v>
+        <v>2592755</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>20.11</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>450348</v>
+        <v>451152</v>
       </c>
       <c r="B99" s="1">
-        <v>44221</v>
+        <v>44231</v>
       </c>
       <c r="C99" s="2">
-        <v>2500624</v>
+        <v>2604416</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>23.53</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>450348</v>
+        <v>451152</v>
       </c>
       <c r="B100" s="1">
-        <v>44222</v>
+        <v>44232</v>
       </c>
       <c r="C100" s="2">
-        <v>2513694</v>
+        <v>2613386</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>22.99</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>450348</v>
+        <v>451709</v>
       </c>
       <c r="B101" s="1">
-        <v>44223</v>
-      </c>
-      <c r="C101" s="2">
-        <v>2522026</v>
+        <v>44230</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2595014</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>27.07</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>450348</v>
+        <v>451709</v>
       </c>
       <c r="B102" s="1">
-        <v>44224</v>
-      </c>
-      <c r="C102" s="2">
-        <v>2534292</v>
+        <v>44232</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2614059</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>26.34</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>450348</v>
+        <v>451709</v>
       </c>
       <c r="B103" s="1">
-        <v>44225</v>
-      </c>
-      <c r="C103" s="2">
-        <v>2545516</v>
+        <v>44233</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2620505</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>23.87</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>450348</v>
+        <v>451709</v>
       </c>
       <c r="B104" s="1">
-        <v>44226</v>
-      </c>
-      <c r="C104" s="2">
-        <v>2555208</v>
+        <v>44234</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2627185</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F104">
-        <v>27.28</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>451152</v>
+        <v>451709</v>
       </c>
       <c r="B105" s="1">
-        <v>44224</v>
-      </c>
-      <c r="C105" s="2">
-        <v>2535771</v>
+        <v>44235</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2641146</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F105">
-        <v>19.82</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>451152</v>
+        <v>451709</v>
       </c>
       <c r="B106" s="1">
-        <v>44225</v>
-      </c>
-      <c r="C106" s="2">
-        <v>2546854</v>
+        <v>44238</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2673662</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>18.190000000000001</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>451152</v>
+        <v>451709</v>
       </c>
       <c r="B107" s="1">
-        <v>44226</v>
-      </c>
-      <c r="C107" s="2">
-        <v>2551676</v>
+        <v>44239</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2685862</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F107">
-        <v>17.34</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>451152</v>
+        <v>453058</v>
       </c>
       <c r="B108" s="1">
-        <v>44227</v>
-      </c>
-      <c r="C108" s="2">
-        <v>2556733</v>
+        <v>44233</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2620543</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>19.59</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>451152</v>
+        <v>453058</v>
       </c>
       <c r="B109" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C109" s="2">
-        <v>2570081</v>
+        <v>44234</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2627068</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>21.05</v>
+        <v>19.559999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>451152</v>
+        <v>453058</v>
       </c>
       <c r="B110" s="1">
-        <v>44230</v>
-      </c>
-      <c r="C110" s="2">
-        <v>2592755</v>
+        <v>44235</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2638730</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>24.29</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>451152</v>
+        <v>453058</v>
       </c>
       <c r="B111" s="1">
-        <v>44231</v>
-      </c>
-      <c r="C111" s="2">
-        <v>2604416</v>
+        <v>44236</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2651345</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>27.27</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>451152</v>
+        <v>453058</v>
       </c>
       <c r="B112" s="1">
-        <v>44232</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2613386</v>
+        <v>44238</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2674330</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>24.66</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>451709</v>
+        <v>453058</v>
       </c>
       <c r="B113" s="1">
-        <v>44230</v>
-      </c>
-      <c r="C113" s="3">
-        <v>2595014</v>
+        <v>44239</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2685840</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F113">
-        <v>24.27</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B114" s="1">
-        <v>44232</v>
-      </c>
-      <c r="C114" s="3">
-        <v>2614059</v>
+        <v>44248</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2760718</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>20.25</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B115" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C115" s="3">
-        <v>2620505</v>
+        <v>44249</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2773515</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>20.77</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B116" s="1">
-        <v>44234</v>
-      </c>
-      <c r="C116" s="3">
-        <v>2627185</v>
+        <v>44250</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2786356</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>22.01</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B117" s="1">
-        <v>44235</v>
-      </c>
-      <c r="C117" s="3">
-        <v>2641146</v>
+        <v>44251</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2797480</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>21.5</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B118" s="1">
-        <v>44236</v>
-      </c>
-      <c r="C118" s="3">
-        <v>2653210</v>
+        <v>44252</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2806801</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>18.440000000000001</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>451709</v>
+        <v>459597</v>
       </c>
       <c r="B119" s="1">
-        <v>44237</v>
-      </c>
-      <c r="C119" s="3">
-        <v>2663852</v>
+        <v>44254</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2826028</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F119">
-        <v>21.31</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>451709</v>
+        <v>461913</v>
       </c>
       <c r="B120" s="1">
-        <v>44238</v>
-      </c>
-      <c r="C120" s="3">
-        <v>2673662</v>
+        <v>44261</v>
+      </c>
+      <c r="C120" s="4">
+        <v>2890862</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>20.63</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>451709</v>
+        <v>471467</v>
       </c>
       <c r="B121" s="1">
-        <v>44239</v>
-      </c>
-      <c r="C121" s="3">
-        <v>2685862</v>
+        <v>44280</v>
+      </c>
+      <c r="C121" s="5">
+        <v>3059818</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>25.64</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B122" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C122" s="3">
-        <v>2620543</v>
+        <v>44282</v>
+      </c>
+      <c r="C122" s="5">
+        <v>3076691</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122">
-        <v>21.13</v>
+        <v>16.010000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B123" s="1">
-        <v>44234</v>
-      </c>
-      <c r="C123" s="3">
-        <v>2627068</v>
+        <v>44283</v>
+      </c>
+      <c r="C123" s="5">
+        <v>3081629</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123">
-        <v>19.559999999999999</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B124" s="1">
-        <v>44235</v>
-      </c>
-      <c r="C124" s="3">
-        <v>2638730</v>
+        <v>44284</v>
+      </c>
+      <c r="C124" s="5">
+        <v>3091337</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>23.81</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B125" s="1">
-        <v>44236</v>
-      </c>
-      <c r="C125" s="3">
-        <v>2651345</v>
+        <v>44285</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3102769</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
       </c>
       <c r="E125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F125">
-        <v>25.62</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B126" s="1">
-        <v>44237</v>
-      </c>
-      <c r="C126" s="3">
-        <v>2663763</v>
+        <v>44286</v>
+      </c>
+      <c r="C126" s="5">
+        <v>3109971</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F126">
-        <v>27.61</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B127" s="1">
-        <v>44238</v>
-      </c>
-      <c r="C127" s="3">
-        <v>2674330</v>
+        <v>44287</v>
+      </c>
+      <c r="C127" s="5">
+        <v>3119403</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
       </c>
       <c r="E127">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F127">
-        <v>27.5</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>453058</v>
+        <v>471467</v>
       </c>
       <c r="B128" s="1">
-        <v>44239</v>
-      </c>
-      <c r="C128" s="3">
-        <v>2685840</v>
+        <v>44288</v>
+      </c>
+      <c r="C128" s="5">
+        <v>3129719</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F128">
-        <v>22.67</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>459597</v>
+        <v>471467</v>
       </c>
       <c r="B129" s="1">
-        <v>44248</v>
-      </c>
-      <c r="C129" s="3">
-        <v>2760718</v>
+        <v>44291</v>
+      </c>
+      <c r="C129" s="5">
+        <v>3148657</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>25.47</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B130" s="1">
-        <v>44249</v>
-      </c>
-      <c r="C130" s="3">
-        <v>2773515</v>
+        <v>44280</v>
+      </c>
+      <c r="C130" s="5">
+        <v>3059822</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>26.01</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B131" s="1">
-        <v>44250</v>
-      </c>
-      <c r="C131" s="3">
-        <v>2786356</v>
+        <v>44281</v>
+      </c>
+      <c r="C131" s="5">
+        <v>3070647</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>22.82</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B132" s="1">
-        <v>44251</v>
-      </c>
-      <c r="C132" s="3">
-        <v>2797480</v>
+        <v>44282</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3076731</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
       <c r="E132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F132">
-        <v>23.37</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B133" s="1">
-        <v>44252</v>
-      </c>
-      <c r="C133" s="3">
-        <v>2806801</v>
+        <v>44283</v>
+      </c>
+      <c r="C133" s="5">
+        <v>3081633</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F133">
-        <v>23.85</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B134" s="1">
-        <v>44253</v>
-      </c>
-      <c r="C134" s="3">
-        <v>2819061</v>
+        <v>44284</v>
+      </c>
+      <c r="C134" s="5">
+        <v>3091339</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F134">
-        <v>26.82</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>459597</v>
+        <v>471588</v>
       </c>
       <c r="B135" s="1">
-        <v>44254</v>
-      </c>
-      <c r="C135" s="3">
-        <v>2826028</v>
+        <v>44285</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3102774</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>23.69</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>461913</v>
+        <v>471588</v>
       </c>
       <c r="B136" s="1">
-        <v>44261</v>
-      </c>
-      <c r="C136" s="6">
-        <v>2890862</v>
+        <v>44286</v>
+      </c>
+      <c r="C136" s="5">
+        <v>3110014</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F136">
-        <v>27.02</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B137" s="1">
-        <v>44280</v>
-      </c>
-      <c r="C137" s="3">
-        <v>3059818</v>
+        <v>44281</v>
+      </c>
+      <c r="C137">
+        <v>3070641</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <v>15.84</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B138" s="1">
-        <v>44281</v>
-      </c>
-      <c r="C138" s="3">
-        <v>3070645</v>
+        <v>44282</v>
+      </c>
+      <c r="C138">
+        <v>3076727</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>14.37</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B139" s="1">
-        <v>44282</v>
-      </c>
-      <c r="C139" s="3">
-        <v>3076691</v>
+        <v>44283</v>
+      </c>
+      <c r="C139">
+        <v>3081646</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E139">
         <v>3</v>
       </c>
       <c r="F139">
-        <v>16.010000000000002</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B140" s="1">
-        <v>44283</v>
-      </c>
-      <c r="C140" s="3">
-        <v>3081629</v>
+        <v>44284</v>
+      </c>
+      <c r="C140">
+        <v>3091319</v>
       </c>
       <c r="D140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
       <c r="F140">
-        <v>17.41</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B141" s="1">
-        <v>44284</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3091337</v>
+        <v>44285</v>
+      </c>
+      <c r="C141">
+        <v>3102768</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E141">
         <v>5</v>
       </c>
       <c r="F141">
-        <v>20.13</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B142" s="1">
-        <v>44285</v>
-      </c>
-      <c r="C142" s="3">
-        <v>3102769</v>
+        <v>44287</v>
+      </c>
+      <c r="C142">
+        <v>3119401</v>
       </c>
       <c r="D142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F142">
-        <v>22.37</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B143" s="1">
-        <v>44286</v>
-      </c>
-      <c r="C143" s="3">
-        <v>3109971</v>
+        <v>44288</v>
+      </c>
+      <c r="C143">
+        <v>3129717</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F143">
-        <v>25.51</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>471467</v>
+        <v>471876</v>
       </c>
       <c r="B144" s="1">
-        <v>44287</v>
-      </c>
-      <c r="C144" s="3">
-        <v>3119403</v>
+        <v>44290</v>
+      </c>
+      <c r="C144">
+        <v>3138294</v>
       </c>
       <c r="D144" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F144">
-        <v>23.35</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>471467</v>
+        <v>475670</v>
       </c>
       <c r="B145" s="1">
-        <v>44288</v>
-      </c>
-      <c r="C145" s="3">
-        <v>3129719</v>
+        <v>44292</v>
+      </c>
+      <c r="C145">
+        <v>3157577</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F145">
-        <v>23.11</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>471467</v>
+        <v>475670</v>
       </c>
       <c r="B146" s="1">
-        <v>44291</v>
-      </c>
-      <c r="C146" s="3">
-        <v>3148657</v>
+        <v>44293</v>
+      </c>
+      <c r="C146">
+        <v>3167376</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F146">
-        <v>25.61</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>471588</v>
+        <v>475670</v>
       </c>
       <c r="B147" s="1">
-        <v>44280</v>
-      </c>
-      <c r="C147" s="3">
-        <v>3059822</v>
+        <v>44294</v>
+      </c>
+      <c r="C147">
+        <v>3175348</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F147">
-        <v>20.58</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>471588</v>
+        <v>475670</v>
       </c>
       <c r="B148" s="1">
-        <v>44281</v>
-      </c>
-      <c r="C148" s="3">
-        <v>3070647</v>
+        <v>44295</v>
+      </c>
+      <c r="C148">
+        <v>3185930</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>21.54</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>471588</v>
+        <v>475670</v>
       </c>
       <c r="B149" s="1">
-        <v>44282</v>
-      </c>
-      <c r="C149" s="3">
-        <v>3076731</v>
+        <v>44297</v>
+      </c>
+      <c r="C149">
+        <v>3197621</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>20.399999999999999</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>471588</v>
+        <v>475670</v>
       </c>
       <c r="B150" s="1">
-        <v>44283</v>
-      </c>
-      <c r="C150" s="3">
-        <v>3081633</v>
+        <v>44298</v>
+      </c>
+      <c r="C150">
+        <v>3205788</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F150">
-        <v>25.35</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>471588</v>
+        <v>475670</v>
       </c>
       <c r="B151" s="1">
-        <v>44284</v>
-      </c>
-      <c r="C151" s="3">
-        <v>3091339</v>
+        <v>44299</v>
+      </c>
+      <c r="C151">
+        <v>3215238</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F151">
-        <v>26.8</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>471588</v>
+        <v>481242</v>
       </c>
       <c r="B152" s="1">
-        <v>44285</v>
-      </c>
-      <c r="C152" s="3">
-        <v>3102774</v>
+        <v>44293</v>
+      </c>
+      <c r="C152">
+        <v>3167398</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>25.1</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>471588</v>
+        <v>481242</v>
       </c>
       <c r="B153" s="1">
-        <v>44286</v>
-      </c>
-      <c r="C153" s="3">
-        <v>3110014</v>
+        <v>44294</v>
+      </c>
+      <c r="C153">
+        <v>3175347</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>27.37</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>471588</v>
+        <v>481242</v>
       </c>
       <c r="B154" s="1">
-        <v>44287</v>
-      </c>
-      <c r="C154" s="3">
-        <v>3119405</v>
+        <v>44295</v>
+      </c>
+      <c r="C154">
+        <v>3185933</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F154">
-        <v>26.49</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>471588</v>
+        <v>481242</v>
       </c>
       <c r="B155" s="1">
-        <v>44288</v>
-      </c>
-      <c r="C155" s="3">
-        <v>3129726</v>
+        <v>44296</v>
+      </c>
+      <c r="C155">
+        <v>3192013</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>27.45</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>471876</v>
+        <v>481242</v>
       </c>
       <c r="B156" s="1">
-        <v>44281</v>
+        <v>44297</v>
       </c>
       <c r="C156">
-        <v>3070641</v>
+        <v>3197624</v>
       </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156">
-        <v>24.26</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>471876</v>
+        <v>481242</v>
       </c>
       <c r="B157" s="1">
-        <v>44282</v>
+        <v>44298</v>
       </c>
       <c r="C157">
-        <v>3076727</v>
+        <v>3205792</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F157">
-        <v>21.73</v>
+        <v>28.73</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>471876</v>
+        <v>481242</v>
       </c>
       <c r="B158" s="1">
-        <v>44283</v>
+        <v>44299</v>
       </c>
       <c r="C158">
-        <v>3081646</v>
+        <v>3215245</v>
       </c>
       <c r="D158" t="s">
         <v>5</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F158">
-        <v>19.13</v>
+        <v>24.22</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>471876</v>
+        <v>481672</v>
       </c>
       <c r="B159" s="1">
-        <v>44284</v>
-      </c>
-      <c r="C159">
-        <v>3091319</v>
+        <v>44302</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3242605</v>
       </c>
       <c r="D159" t="s">
         <v>5</v>
       </c>
       <c r="E159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F159">
-        <v>24.78</v>
+        <v>28.55</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>471876</v>
+        <v>482828</v>
       </c>
       <c r="B160" s="1">
-        <v>44285</v>
-      </c>
-      <c r="C160">
-        <v>3102768</v>
+        <v>44300</v>
+      </c>
+      <c r="C160" s="3">
+        <v>3224635</v>
       </c>
       <c r="D160" t="s">
         <v>5</v>
       </c>
       <c r="E160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>21.67</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>471876</v>
+        <v>482828</v>
       </c>
       <c r="B161" s="1">
-        <v>44287</v>
-      </c>
-      <c r="C161">
-        <v>3119401</v>
+        <v>44301</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3234038</v>
       </c>
       <c r="D161" t="s">
         <v>5</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>28.52</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>471876</v>
+        <v>482828</v>
       </c>
       <c r="B162" s="1">
-        <v>44288</v>
-      </c>
-      <c r="C162">
-        <v>3129717</v>
+        <v>44302</v>
+      </c>
+      <c r="C162" s="3">
+        <v>3242597</v>
       </c>
       <c r="D162" t="s">
         <v>5</v>
       </c>
       <c r="E162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F162">
-        <v>27.76</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>471876</v>
+        <v>482828</v>
       </c>
       <c r="B163" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C163">
-        <v>3138294</v>
+        <v>44303</v>
+      </c>
+      <c r="C163" s="3">
+        <v>3250543</v>
       </c>
       <c r="D163" t="s">
         <v>5</v>
       </c>
       <c r="E163">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F163">
-        <v>29.29</v>
+        <v>27.81</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>475670</v>
+        <v>484249</v>
       </c>
       <c r="B164" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C164">
-        <v>3157577</v>
+        <v>44302</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3242603</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>22.93</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>475670</v>
+        <v>484249</v>
       </c>
       <c r="B165" s="1">
-        <v>44293</v>
-      </c>
-      <c r="C165">
-        <v>3167376</v>
+        <v>44303</v>
+      </c>
+      <c r="C165" s="3">
+        <v>3250559</v>
       </c>
       <c r="D165" t="s">
         <v>5</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F165">
-        <v>25.55</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>475670</v>
+        <v>486422</v>
       </c>
       <c r="B166" s="1">
-        <v>44294</v>
-      </c>
-      <c r="C166">
-        <v>3175348</v>
+        <v>44305</v>
+      </c>
+      <c r="C166" s="3">
+        <v>3265002</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
       </c>
       <c r="E166">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F166">
-        <v>27.03</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>475670</v>
+        <v>486422</v>
       </c>
       <c r="B167" s="1">
-        <v>44295</v>
-      </c>
-      <c r="C167">
-        <v>3185930</v>
+        <v>44306</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3273779</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
       <c r="E167">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F167">
-        <v>29.96</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>475670</v>
+        <v>486422</v>
       </c>
       <c r="B168" s="1">
-        <v>44297</v>
-      </c>
-      <c r="C168">
-        <v>3197621</v>
+        <v>44307</v>
+      </c>
+      <c r="C168" s="3">
+        <v>3282230</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
       </c>
       <c r="E168">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F168">
-        <v>23.4</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>475670</v>
+        <v>487250</v>
       </c>
       <c r="B169" s="1">
-        <v>44298</v>
-      </c>
-      <c r="C169">
-        <v>3205788</v>
+        <v>44307</v>
+      </c>
+      <c r="C169" s="3">
+        <v>3282204</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
       </c>
       <c r="E169">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>22.15</v>
+        <v>29.73</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>475670</v>
+        <v>487250</v>
       </c>
       <c r="B170" s="1">
-        <v>44299</v>
-      </c>
-      <c r="C170">
-        <v>3215238</v>
+        <v>44311</v>
+      </c>
+      <c r="C170" s="3">
+        <v>3309204</v>
       </c>
       <c r="D170" t="s">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F170">
-        <v>25.21</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>481242</v>
+        <v>487250</v>
       </c>
       <c r="B171" s="1">
-        <v>44293</v>
-      </c>
-      <c r="C171">
-        <v>3167398</v>
+        <v>44313</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3330663</v>
       </c>
       <c r="D171" t="s">
         <v>5</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F171">
-        <v>22.87</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>481242</v>
+        <v>487250</v>
       </c>
       <c r="B172" s="1">
-        <v>44294</v>
-      </c>
-      <c r="C172">
-        <v>3175347</v>
+        <v>44314</v>
+      </c>
+      <c r="C172" s="3">
+        <v>3339346</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F172">
-        <v>25.51</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>481242</v>
+        <v>487297</v>
       </c>
       <c r="B173" s="1">
-        <v>44295</v>
-      </c>
-      <c r="C173">
-        <v>3185933</v>
+        <v>44307</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3282198</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>23.93</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>481242</v>
+        <v>487297</v>
       </c>
       <c r="B174" s="1">
-        <v>44296</v>
-      </c>
-      <c r="C174">
-        <v>3192013</v>
+        <v>44308</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3291252</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>25.6</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>481242</v>
+        <v>487297</v>
       </c>
       <c r="B175" s="1">
-        <v>44297</v>
-      </c>
-      <c r="C175">
-        <v>3197624</v>
+        <v>44309</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3300933</v>
       </c>
       <c r="D175" t="s">
         <v>5</v>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F175">
-        <v>23.65</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>481242</v>
+        <v>487941</v>
       </c>
       <c r="B176" s="1">
-        <v>44298</v>
-      </c>
-      <c r="C176">
-        <v>3205792</v>
+        <v>44310</v>
+      </c>
+      <c r="C176" s="2">
+        <v>3305749</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>28.73</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>481242</v>
-      </c>
-      <c r="B177" s="1">
-        <v>44299</v>
-      </c>
-      <c r="C177">
-        <v>3215245</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177">
-        <v>6</v>
-      </c>
-      <c r="F177">
-        <v>24.22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>481672</v>
-      </c>
-      <c r="B178" s="1">
-        <v>44302</v>
-      </c>
-      <c r="C178" s="2">
-        <v>3242605</v>
-      </c>
-      <c r="D178" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178">
-        <v>6</v>
-      </c>
-      <c r="F178">
-        <v>28.55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>482828</v>
-      </c>
-      <c r="B179" s="1">
-        <v>44300</v>
-      </c>
-      <c r="C179" s="5">
-        <v>3224635</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>19.12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>482828</v>
-      </c>
-      <c r="B180" s="1">
-        <v>44301</v>
-      </c>
-      <c r="C180" s="5">
-        <v>3234038</v>
-      </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>25.29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>482828</v>
-      </c>
-      <c r="B181" s="1">
-        <v>44302</v>
-      </c>
-      <c r="C181" s="5">
-        <v>3242597</v>
-      </c>
-      <c r="D181" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181">
-        <v>2</v>
-      </c>
-      <c r="F181">
-        <v>24.24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>482828</v>
-      </c>
-      <c r="B182" s="1">
-        <v>44303</v>
-      </c>
-      <c r="C182" s="5">
-        <v>3250543</v>
-      </c>
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182">
-        <v>3</v>
-      </c>
-      <c r="F182">
-        <v>27.81</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>484249</v>
-      </c>
-      <c r="B183" s="1">
-        <v>44302</v>
-      </c>
-      <c r="C183" s="5">
-        <v>3242603</v>
-      </c>
-      <c r="D183" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>484249</v>
-      </c>
-      <c r="B184" s="1">
-        <v>44303</v>
-      </c>
-      <c r="C184" s="5">
-        <v>3250559</v>
-      </c>
-      <c r="D184" t="s">
-        <v>5</v>
-      </c>
-      <c r="E184">
-        <v>2</v>
-      </c>
-      <c r="F184">
-        <v>28.09</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>486422</v>
-      </c>
-      <c r="B185" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C185" s="5">
-        <v>3265002</v>
-      </c>
-      <c r="D185" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185">
-        <v>2</v>
-      </c>
-      <c r="F185">
-        <v>22.34</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>486422</v>
-      </c>
-      <c r="B186" s="1">
-        <v>44306</v>
-      </c>
-      <c r="C186" s="5">
-        <v>3273779</v>
-      </c>
-      <c r="D186" t="s">
-        <v>5</v>
-      </c>
-      <c r="E186">
-        <v>3</v>
-      </c>
-      <c r="F186">
-        <v>25.16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>486422</v>
-      </c>
-      <c r="B187" s="1">
-        <v>44307</v>
-      </c>
-      <c r="C187" s="5">
-        <v>3282230</v>
-      </c>
-      <c r="D187" t="s">
-        <v>5</v>
-      </c>
-      <c r="E187">
-        <v>4</v>
-      </c>
-      <c r="F187">
         <v>28.98</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>487250</v>
-      </c>
-      <c r="B188" s="1">
-        <v>44307</v>
-      </c>
-      <c r="C188" s="5">
-        <v>3282204</v>
-      </c>
-      <c r="D188" t="s">
-        <v>5</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>29.73</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>487250</v>
-      </c>
-      <c r="B189" s="1">
-        <v>44311</v>
-      </c>
-      <c r="C189" s="5">
-        <v>3309204</v>
-      </c>
-      <c r="D189" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189">
-        <v>4</v>
-      </c>
-      <c r="F189">
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>487250</v>
-      </c>
-      <c r="B190" s="1">
-        <v>44313</v>
-      </c>
-      <c r="C190" s="5">
-        <v>3330663</v>
-      </c>
-      <c r="D190" t="s">
-        <v>5</v>
-      </c>
-      <c r="E190">
-        <v>6</v>
-      </c>
-      <c r="F190">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>487250</v>
-      </c>
-      <c r="B191" s="1">
-        <v>44314</v>
-      </c>
-      <c r="C191" s="5">
-        <v>3339346</v>
-      </c>
-      <c r="D191" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191">
-        <v>7</v>
-      </c>
-      <c r="F191">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>487297</v>
-      </c>
-      <c r="B192" s="1">
-        <v>44307</v>
-      </c>
-      <c r="C192" s="5">
-        <v>3282198</v>
-      </c>
-      <c r="D192" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>23.24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>487297</v>
-      </c>
-      <c r="B193" s="1">
-        <v>44308</v>
-      </c>
-      <c r="C193" s="5">
-        <v>3291252</v>
-      </c>
-      <c r="D193" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193">
-        <v>24.34</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>487297</v>
-      </c>
-      <c r="B194" s="1">
-        <v>44309</v>
-      </c>
-      <c r="C194" s="5">
-        <v>3300933</v>
-      </c>
-      <c r="D194" t="s">
-        <v>5</v>
-      </c>
-      <c r="E194">
-        <v>2</v>
-      </c>
-      <c r="F194">
-        <v>27.35</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>487941</v>
-      </c>
-      <c r="B195" s="1">
-        <v>44310</v>
-      </c>
-      <c r="C195" s="2">
-        <v>3305749</v>
-      </c>
-      <c r="D195" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>28.98</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D195">
-    <sortCondition ref="A2:A195"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D176">
+    <sortCondition ref="A2:A176"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
